--- a/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DE9777-55AA-446E-8A60-F6E286F56835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA45501-DADD-481E-9026-A7CBDBC41C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA45501-DADD-481E-9026-A7CBDBC41C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C9D333-CDC8-4C23-9457-2409312064CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C9D333-CDC8-4C23-9457-2409312064CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C696BA97-FE73-46D7-872E-531887AD7305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C696BA97-FE73-46D7-872E-531887AD7305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8105AA5-3741-4230-81DE-A8684D84B384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8105AA5-3741-4230-81DE-A8684D84B384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DFDB2A-18F2-4AC4-B08F-9E1825B0E4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DFDB2A-18F2-4AC4-B08F-9E1825B0E4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9BB96B-BCB6-4600-A6CD-F3188366B6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9BB96B-BCB6-4600-A6CD-F3188366B6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CD6F6D-E9B0-4FD7-860C-D01EBBAE1168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CD6F6D-E9B0-4FD7-860C-D01EBBAE1168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0065FB2-BA62-4CE2-B8D3-9629CEAA5B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0065FB2-BA62-4CE2-B8D3-9629CEAA5B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676A8CE7-EBF5-4C4B-9965-B9ED5A0E6558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676A8CE7-EBF5-4C4B-9965-B9ED5A0E6558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BCE5BA-B83A-4982-8FE7-BF5D8B1CCEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BCE5BA-B83A-4982-8FE7-BF5D8B1CCEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191C6881-D42E-4436-9F92-0536D6DB57FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191C6881-D42E-4436-9F92-0536D6DB57FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE2A5FA-A32A-4707-B703-ACF7BFD40ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE2A5FA-A32A-4707-B703-ACF7BFD40ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2CCE94-F4DF-43BC-912F-A27115D89556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2CCE94-F4DF-43BC-912F-A27115D89556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875F91CD-9BCF-4D96-AD5D-24D538C2BEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
